--- a/report/Report-Pelaporan Manajemen- Laporan produksi Global.xlsx
+++ b/report/Report-Pelaporan Manajemen- Laporan produksi Global.xlsx
@@ -56,58 +56,58 @@
     <t>LN</t>
   </si>
   <si>
-    <t>${table:global.NM_CABANG}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_u_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_u_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_k_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gr_k_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.u_u_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.u_u_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.u_k_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.u_k_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.pd_u_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.pd_u_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.pd_k_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.pd_k_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_u_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_u_ln}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_k_dn}</t>
-  </si>
-  <si>
-    <t>${table:global.gt_k_ln}</t>
-  </si>
-  <si>
     <t>${table:global.no}</t>
+  </si>
+  <si>
+    <t>${table:global.cabang}</t>
+  </si>
+  <si>
+    <t>${table:global.unitUdn}</t>
+  </si>
+  <si>
+    <t>${table:global.unitUln}</t>
+  </si>
+  <si>
+    <t>${table:global.unitKdn}</t>
+  </si>
+  <si>
+    <t>${table:global.unitKln}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanUdn}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanUln}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanKdn}</t>
+  </si>
+  <si>
+    <t>${table:global.gerakanKln}</t>
+  </si>
+  <si>
+    <t>${table:global.gtUdn}</t>
+  </si>
+  <si>
+    <t>${table:global.gtUln}</t>
+  </si>
+  <si>
+    <t>${table:global.gtKdn}</t>
+  </si>
+  <si>
+    <t>${table:global.gtKln}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanUdn}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanUln}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanKdn}</t>
+  </si>
+  <si>
+    <t>${table:global.pendapatanKln}</t>
   </si>
 </sst>
 </file>
@@ -281,13 +281,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,7 +525,7 @@
   <dimension ref="A1:R988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -533,80 +534,85 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="34" width="7.6640625" customWidth="1"/>
+    <col min="5" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="34" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="13" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="5"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -658,58 +664,58 @@
     </row>
     <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
